--- a/McKinney/datasets/Dubr/tables.xlsx
+++ b/McKinney/datasets/Dubr/tables.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Programming\Py\McKinney\datasets\Dubr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1228556-AC65-4FAE-B2F5-CDA572EA433E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="12030" yWindow="3375" windowWidth="16530" windowHeight="16305" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +19,26 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2 (2)" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="267">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -825,8 +844,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -878,17 +897,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -935,7 +963,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -967,9 +995,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1001,6 +1047,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1176,14 +1240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1209,7 +1273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1229,12 +1293,12 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1242,7 +1306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1250,7 +1314,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1267,12 +1331,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1289,12 +1353,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1308,14 +1372,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1422,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1382,7 +1451,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>35</v>
       </c>
@@ -1393,7 +1462,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>61</v>
       </c>
@@ -1410,12 +1479,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1440,11 +1509,12 @@
       <c r="J6" t="s">
         <v>138</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L6" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1473,7 +1543,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1502,7 +1572,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1531,7 +1601,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1560,7 +1630,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1589,7 +1659,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1618,7 +1688,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -1647,7 +1717,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -1676,7 +1746,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1705,7 +1775,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1734,7 +1804,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -1763,7 +1833,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -1792,7 +1862,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
@@ -1821,7 +1891,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -1852,18 +1922,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1883,7 +1954,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>170</v>
       </c>
@@ -1900,7 +1971,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>171</v>
       </c>
@@ -1917,7 +1988,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>173</v>
       </c>
@@ -1934,7 +2005,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>174</v>
       </c>
@@ -1951,7 +2022,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -1974,14 +2045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1998,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -2015,12 +2086,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>196</v>
       </c>
@@ -2037,7 +2108,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>27</v>
       </c>
@@ -2045,7 +2116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -2053,7 +2124,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>198</v>
       </c>
@@ -2070,12 +2141,12 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -2092,17 +2163,17 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -2119,12 +2190,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -2141,12 +2212,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -2169,14 +2240,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2187,7 +2258,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>236</v>
       </c>
@@ -2198,7 +2269,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>237</v>
       </c>
@@ -2209,7 +2280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -2220,7 +2291,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>239</v>
       </c>
@@ -2231,7 +2302,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>240</v>
       </c>
@@ -2242,7 +2313,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>241</v>
       </c>
@@ -2253,7 +2324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>242</v>
       </c>
@@ -2270,14 +2341,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2288,7 +2359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>249</v>
       </c>
@@ -2299,7 +2370,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>255</v>
       </c>
@@ -2307,12 +2378,12 @@
         <v>261</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>250</v>
       </c>
@@ -2323,7 +2394,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>251</v>
       </c>
@@ -2334,7 +2405,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>252</v>
       </c>
@@ -2345,7 +2416,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>253</v>
       </c>
@@ -2359,4 +2430,496 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EF85C7E-FEBF-4DB7-A3B7-6EE75923C69B}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="14.85546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" t="s">
+        <v>139</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I9" t="s">
+        <v>132</v>
+      </c>
+      <c r="J9" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" t="s">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>149</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AF8F1B-EB30-4888-8158-4DAA1F380491}">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>